--- a/codigo organizado/output/resultados_m5_2transfer_learning.xlsx
+++ b/codigo organizado/output/resultados_m5_2transfer_learning.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,16 @@
           <t>HOBBIES_1_003_CA_1_validation</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>HOBBIES_1_004_CA_1_validation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>HOBBIES_1_005_CA_1_validation</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -462,13 +472,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.452931583746228</v>
+        <v>0.3653583050164932</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4669648625961525</v>
+        <v>1.021152300439009</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5073732695973492</v>
+        <v>0.9041592438944852</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.000027916040537</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.634662366438273</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +494,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3751948319159719</v>
+        <v>0.283935054973017</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3331698867356456</v>
+        <v>1.032099292420071</v>
       </c>
       <c r="D3" t="n">
-        <v>0.377531262524709</v>
+        <v>0.9396951834278284</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.024740762953619</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.683795335275827</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +516,63 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2301631653963901</v>
+        <v>0.1856182467761635</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2391462092998861</v>
+        <v>1.020138035286565</v>
       </c>
       <c r="D4" t="n">
-        <v>0.239007521846788</v>
+        <v>0.8688968260034107</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.006400348704913</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.624723446336718</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>HOBBIES_1_004_CA_1_validation</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.544510303714394</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.035820645419505</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9798027601063883</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.029121512237337</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.730731401732883</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>HOBBIES_1_005_CA_1_validation</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1.432538445203404</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.031606051098081</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9408441845804164</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.018414176313227</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.745841540342858</v>
       </c>
     </row>
   </sheetData>

--- a/codigo organizado/output/resultados_m5_2transfer_learning.xlsx
+++ b/codigo organizado/output/resultados_m5_2transfer_learning.xlsx
@@ -484,7 +484,7 @@
         <v>1.000027916040537</v>
       </c>
       <c r="F2" t="n">
-        <v>1.634662366438273</v>
+        <v>1.629570462787878</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
         <v>1.024740762953619</v>
       </c>
       <c r="F3" t="n">
-        <v>1.683795335275827</v>
+        <v>1.677679867793768</v>
       </c>
     </row>
     <row r="4">
@@ -528,7 +528,7 @@
         <v>1.006400348704913</v>
       </c>
       <c r="F4" t="n">
-        <v>1.624723446336718</v>
+        <v>1.621387872197296</v>
       </c>
     </row>
     <row r="5">
@@ -550,7 +550,7 @@
         <v>1.029121512237337</v>
       </c>
       <c r="F5" t="n">
-        <v>1.730731401732883</v>
+        <v>1.726289980323018</v>
       </c>
     </row>
     <row r="6">
@@ -572,7 +572,7 @@
         <v>1.018414176313227</v>
       </c>
       <c r="F6" t="n">
-        <v>1.745841540342858</v>
+        <v>1.742815771014931</v>
       </c>
     </row>
   </sheetData>
